--- a/xlsx/布坎南_intext.xlsx
+++ b/xlsx/布坎南_intext.xlsx
@@ -53,19 +53,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%9D%8E%E5%8D%97%E7%B8%A3_(%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布坎南縣 (密蘇里州)</t>
+    <t>布坎南县 (密苏里州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%9D%8E%E5%8D%97%E7%B8%A3_(%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布坎南縣 (維吉尼亞州)</t>
+    <t>布坎南县 (维吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%9D%8E%E5%8D%97_(%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9E)</t>
   </si>
   <si>
-    <t>布坎南 (利比里亞)</t>
+    <t>布坎南 (利比里亚)</t>
   </si>
 </sst>
 </file>
